--- a/Schablonen/Diagnose_ZweiEbenenThorax.xlsx
+++ b/Schablonen/Diagnose_ZweiEbenenThorax.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Git\radiospeech\Schablonen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DB9097-F5C6-4D92-ADC1-1E1B3548AA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD0D8A3-E0A1-48FF-82F4-9668C0385071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="41180" windowHeight="21100" xr2:uid="{FC2E3F15-D340-4F23-99B8-31123EBBCD2A}"/>
+    <workbookView xWindow="-28920" yWindow="2160" windowWidth="29040" windowHeight="15720" xr2:uid="{FC2E3F15-D340-4F23-99B8-31123EBBCD2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Gliederung</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Fraktur</t>
+  </si>
+  <si>
+    <t>Variable-Default</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -291,7 +294,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,27 +590,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921747DB-B1AF-4561-88D0-138401F2EBDE}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="4" max="4" width="69.7265625" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" customWidth="1"/>
-    <col min="6" max="6" width="3.7265625" customWidth="1"/>
-    <col min="7" max="7" width="4.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="3.81640625" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" customWidth="1"/>
-    <col min="11" max="12" width="56.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.54296875" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="12" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,16 +649,19 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -668,7 +675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -685,7 +692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>23</v>
       </c>
@@ -693,7 +700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>25</v>
       </c>
@@ -710,7 +717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -727,7 +734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -744,7 +751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>36</v>
       </c>
@@ -761,7 +768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -769,7 +776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>41</v>
       </c>
@@ -777,7 +784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -785,7 +792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -793,7 +800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>46</v>
       </c>
@@ -801,7 +808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>48</v>
       </c>
@@ -809,7 +816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>49</v>
       </c>
@@ -817,7 +824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>51</v>
       </c>
@@ -825,7 +832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -839,7 +846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>55</v>
       </c>
@@ -847,7 +854,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>56</v>
       </c>
@@ -864,7 +871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>59</v>
       </c>
@@ -872,7 +879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>60</v>
       </c>
@@ -880,7 +887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>61</v>
       </c>
@@ -888,7 +895,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>63</v>
       </c>
@@ -896,7 +903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>64</v>
       </c>
@@ -904,7 +911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>65</v>
       </c>
@@ -912,7 +919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>66</v>
       </c>
